--- a/data/grants.xlsx
+++ b/data/grants.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11014"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10112"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/daniel/Desktop/trial-cv/_cv_data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/daniel/anderson-cv/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7ACCA71-7301-5E45-AF2B-D02E39A48176}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00BF8A14-3AD1-DA44-9AD3-522C922B5678}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="36020" yWindow="3120" windowWidth="27640" windowHeight="16940" xr2:uid="{2F3CED88-84B5-4249-9663-01EB28D3FE1D}"/>
+    <workbookView xWindow="2580" yWindow="3560" windowWidth="27640" windowHeight="16940" xr2:uid="{2F3CED88-84B5-4249-9663-01EB28D3FE1D}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -528,8 +528,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4605E665-D6A4-C749-961B-EF6BCFDB74F3}">
   <dimension ref="A1:N9"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="N5" sqref="N5:N9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -655,7 +655,7 @@
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>8</v>
@@ -668,10 +668,10 @@
         <v>5</v>
       </c>
       <c r="G4" s="6">
-        <v>43831</v>
+        <v>43862</v>
       </c>
       <c r="H4" s="6">
-        <v>44196</v>
+        <v>44227</v>
       </c>
       <c r="I4">
         <v>48903.17</v>
@@ -686,7 +686,7 @@
         <v>0</v>
       </c>
       <c r="N4" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.2">

--- a/data/grants.xlsx
+++ b/data/grants.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10112"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11012"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/daniel/anderson-cv/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00BF8A14-3AD1-DA44-9AD3-522C922B5678}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68B2DD96-13DF-5E48-9E61-6AEB42A02F1C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2580" yWindow="3560" windowWidth="27640" windowHeight="16940" xr2:uid="{2F3CED88-84B5-4249-9663-01EB28D3FE1D}"/>
+    <workbookView xWindow="34080" yWindow="7280" windowWidth="27640" windowHeight="16940" xr2:uid="{2F3CED88-84B5-4249-9663-01EB28D3FE1D}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="63">
   <si>
     <t>title</t>
   </si>
@@ -48,9 +48,6 @@
     <t>budget</t>
   </si>
   <si>
-    <t>Digital assessments of writing using multiple metrics to reflect improvement for students with disabilities</t>
-  </si>
-  <si>
     <t>Community health and school readiness: Closing the gap</t>
   </si>
   <si>
@@ -154,13 +151,79 @@
   </si>
   <si>
     <t>in_review</t>
+  </si>
+  <si>
+    <t>Pennsylvania Alternate System of Assessment (PASA)</t>
+  </si>
+  <si>
+    <t>Pennsylvania Department of Education</t>
+  </si>
+  <si>
+    <t>Co-Principal Investigator</t>
+  </si>
+  <si>
+    <t>Virginia Department of Education</t>
+  </si>
+  <si>
+    <t>Collaborative Research: Growing Agency for Sensemaking of Scientific Phenomena (Project GrASSP)</t>
+  </si>
+  <si>
+    <t>P. Shawn Irvin</t>
+  </si>
+  <si>
+    <t>National Science Foundation, Education &amp; Human Resources</t>
+  </si>
+  <si>
+    <t>Virginia Alternate Assessment - Essentialization contract</t>
+  </si>
+  <si>
+    <t>Virginia Alternate Assessment</t>
+  </si>
+  <si>
+    <t>rejected</t>
+  </si>
+  <si>
+    <t>Digital Assessments of Writing Using Multiple Metrics to Reflect Improvement for Students  </t>
+  </si>
+  <si>
+    <t>Collaborative Research: Measuring the Application of Science Reasoning (Project MARS) </t>
+  </si>
+  <si>
+    <t>Applying Computational Research Methods to the Evaluations of Achievement Gaps  </t>
+  </si>
+  <si>
+    <t>Reproducible collaboration: Interfacing between Microsoft Word and R Markdown </t>
+  </si>
+  <si>
+    <t>Better Scientific Software</t>
+  </si>
+  <si>
+    <t>Putting Large-Scale Data to Work in Applied Educational Settings</t>
+  </si>
+  <si>
+    <t>National Academy of Eduction/Spencer Postdoctoral Fellowship</t>
+  </si>
+  <si>
+    <t>Open and Reproducible Research in Education</t>
+  </si>
+  <si>
+    <t>rOpenSci</t>
+  </si>
+  <si>
+    <t>County Moderators of District Expenditures on Student Achievement</t>
+  </si>
+  <si>
+    <t>Russell Sage Foundation</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="[$-409]d\-mmm\-yy;@"/>
+  </numFmts>
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -178,6 +241,17 @@
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Verdana"/>
       <family val="2"/>
     </font>
   </fonts>
@@ -201,17 +275,23 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="1" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="15" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="17" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="15" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="1" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="17" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -526,10 +606,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4605E665-D6A4-C749-961B-EF6BCFDB74F3}">
-  <dimension ref="A1:N9"/>
+  <dimension ref="A1:N19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="N22" sqref="N22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -538,364 +618,760 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
+      <c r="A1" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="K1" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="L1" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="M1" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="N1" s="3" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A2" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" t="s">
-        <v>18</v>
-      </c>
-      <c r="E1" t="s">
-        <v>2</v>
-      </c>
-      <c r="F1" t="s">
-        <v>3</v>
-      </c>
-      <c r="G1" t="s">
-        <v>26</v>
-      </c>
-      <c r="H1" t="s">
-        <v>27</v>
-      </c>
-      <c r="I1" t="s">
-        <v>6</v>
-      </c>
-      <c r="J1" t="s">
-        <v>40</v>
-      </c>
-      <c r="K1" t="s">
-        <v>41</v>
-      </c>
-      <c r="L1" t="s">
-        <v>28</v>
-      </c>
-      <c r="M1" t="s">
-        <v>33</v>
-      </c>
-      <c r="N1" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="D2" s="1"/>
-      <c r="E2" s="1" t="s">
+      <c r="C2" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="D2" s="4"/>
+      <c r="E2" s="4" t="s">
         <v>5</v>
       </c>
+      <c r="F2" s="3"/>
       <c r="G2" s="5">
-        <v>44013</v>
+        <v>44378</v>
       </c>
       <c r="H2" s="6">
-        <v>45473</v>
-      </c>
-      <c r="I2" s="2">
-        <v>1399808</v>
-      </c>
-      <c r="J2">
+        <v>45838</v>
+      </c>
+      <c r="I2" s="7">
+        <v>1699963</v>
+      </c>
+      <c r="J2" s="3">
         <v>0.3</v>
       </c>
-      <c r="K2">
+      <c r="K2" s="3">
         <v>0.3</v>
       </c>
-      <c r="L2" t="b">
-        <v>0</v>
-      </c>
-      <c r="N2" t="b">
+      <c r="L2" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="M2" s="3"/>
+      <c r="N2" s="3" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>11</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="D3" s="1"/>
-      <c r="E3" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G3" s="7">
+      <c r="A3" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="D3" s="4"/>
+      <c r="E3" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="G3" s="8">
         <v>44075</v>
       </c>
       <c r="H3" s="6">
         <v>45535</v>
       </c>
-      <c r="I3" s="3">
+      <c r="I3" s="9">
+        <v>1476155</v>
+      </c>
+      <c r="J3" s="3">
+        <v>0.15</v>
+      </c>
+      <c r="K3" s="3">
+        <v>0.15</v>
+      </c>
+      <c r="L3" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="M3" s="3"/>
+      <c r="N3" s="3" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A4" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="D4" s="4"/>
+      <c r="E4" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F4" s="4"/>
+      <c r="G4" s="5">
+        <v>44013</v>
+      </c>
+      <c r="H4" s="5">
+        <v>44742</v>
+      </c>
+      <c r="I4" s="9">
+        <v>1245936</v>
+      </c>
+      <c r="J4" s="3">
+        <v>0.2</v>
+      </c>
+      <c r="K4" s="3">
+        <v>0.4</v>
+      </c>
+      <c r="L4" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="M4" s="3"/>
+      <c r="N4" s="3" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A5" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D5" s="4"/>
+      <c r="E5" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="F5" s="3"/>
+      <c r="G5" s="6">
+        <v>43862</v>
+      </c>
+      <c r="H5" s="6">
+        <v>44227</v>
+      </c>
+      <c r="I5" s="3">
+        <v>48903.17</v>
+      </c>
+      <c r="J5" s="3">
+        <v>0</v>
+      </c>
+      <c r="K5" s="3">
+        <v>0</v>
+      </c>
+      <c r="L5" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="M5" s="3"/>
+      <c r="N5" s="3" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A6" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="D6" s="4"/>
+      <c r="E6" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="G6" s="1">
+        <v>43937</v>
+      </c>
+      <c r="H6" s="1">
+        <v>44074</v>
+      </c>
+      <c r="I6" s="3">
+        <v>215000</v>
+      </c>
+      <c r="J6" s="3">
+        <v>0.45</v>
+      </c>
+      <c r="K6" s="3">
+        <v>0.45</v>
+      </c>
+      <c r="L6" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="M6" s="3"/>
+      <c r="N6" s="3" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A7" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="D7" s="4"/>
+      <c r="E7" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="F7" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="G7" s="1">
+        <v>44032</v>
+      </c>
+      <c r="H7" s="1">
+        <v>44124</v>
+      </c>
+      <c r="I7" s="3">
+        <v>83000</v>
+      </c>
+      <c r="J7" s="3">
+        <v>0.2</v>
+      </c>
+      <c r="K7" s="3">
+        <v>0.2</v>
+      </c>
+      <c r="L7" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="M7" s="3"/>
+      <c r="N7" s="3" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A8" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="D8" s="3"/>
+      <c r="E8" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="F8" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="G8" s="6">
+        <v>43709</v>
+      </c>
+      <c r="H8" s="8">
+        <v>44074</v>
+      </c>
+      <c r="I8" s="3">
+        <v>628012</v>
+      </c>
+      <c r="J8" s="3">
+        <v>0.24</v>
+      </c>
+      <c r="K8" s="3">
+        <v>0.24</v>
+      </c>
+      <c r="L8" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="M8" s="3"/>
+      <c r="N8" s="3" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A9" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D9" s="4"/>
+      <c r="E9" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F9" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="G9" s="8">
+        <v>43709</v>
+      </c>
+      <c r="H9" s="8">
+        <v>45169</v>
+      </c>
+      <c r="I9" s="3">
+        <v>2189469</v>
+      </c>
+      <c r="J9" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="K9" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="L9" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="M9" s="3"/>
+      <c r="N9" s="3" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A10" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="D10" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="E10" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="G10" s="11">
+        <v>40344</v>
+      </c>
+      <c r="H10" s="11">
+        <v>41804</v>
+      </c>
+      <c r="I10" s="3">
+        <v>1631403</v>
+      </c>
+      <c r="J10" s="3">
+        <v>0.51</v>
+      </c>
+      <c r="K10" s="3">
+        <v>0.61</v>
+      </c>
+      <c r="L10" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="M10" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="N10" s="3" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A11" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="D11" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="E11" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="F11" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="G11" s="12">
+        <v>40725</v>
+      </c>
+      <c r="H11" s="12">
+        <v>43252</v>
+      </c>
+      <c r="I11" s="3">
+        <v>11677134</v>
+      </c>
+      <c r="J11" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="K11" s="3">
+        <v>0.47</v>
+      </c>
+      <c r="L11" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="M11" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="N11" s="3" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A12" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="D12" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="E12" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="F12" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="G12" s="12">
+        <v>40330</v>
+      </c>
+      <c r="H12" s="12">
+        <v>41760</v>
+      </c>
+      <c r="I12" s="3">
+        <v>1596638</v>
+      </c>
+      <c r="J12" s="3">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="K12" s="3">
+        <v>0.45</v>
+      </c>
+      <c r="L12" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="M12" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="N12" s="3" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A13" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="B13" s="13" t="s">
+        <v>52</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="D13" s="3"/>
+      <c r="E13" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="F13" s="3"/>
+      <c r="G13" s="1">
+        <v>44075</v>
+      </c>
+      <c r="H13" s="1">
+        <v>44439</v>
+      </c>
+      <c r="I13" s="3">
         <v>1399163</v>
       </c>
-      <c r="J3">
+      <c r="J13" s="3">
         <v>0.35</v>
       </c>
-      <c r="K3">
+      <c r="K13" s="3">
         <v>0.35</v>
       </c>
-      <c r="L3" t="b">
-        <v>0</v>
-      </c>
-      <c r="N3" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>12</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D4" s="1"/>
-      <c r="E4" s="1" t="s">
+      <c r="L13" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="M13" s="3"/>
+      <c r="N13" s="3" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A14" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="B14" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="D14" s="3"/>
+      <c r="E14" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="G4" s="6">
-        <v>43862</v>
-      </c>
-      <c r="H4" s="6">
-        <v>44227</v>
-      </c>
-      <c r="I4">
-        <v>48903.17</v>
-      </c>
-      <c r="J4">
-        <v>0</v>
-      </c>
-      <c r="K4">
-        <v>0</v>
-      </c>
-      <c r="L4" t="b">
-        <v>0</v>
-      </c>
-      <c r="N4" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>12</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="D5" s="1"/>
-      <c r="E5" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="G5" s="7">
+      <c r="F14" s="3"/>
+      <c r="G14" s="1">
+        <v>43473</v>
+      </c>
+      <c r="H14" s="1">
+        <v>43921</v>
+      </c>
+      <c r="I14" s="3">
+        <v>25000</v>
+      </c>
+      <c r="J14" s="3">
+        <v>0.13</v>
+      </c>
+      <c r="K14" s="3">
+        <v>0.13</v>
+      </c>
+      <c r="L14" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="M14" s="3"/>
+      <c r="N14" s="3" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A15" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="B15" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="D15" s="3"/>
+      <c r="E15" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="F15" s="3"/>
+      <c r="G15" s="1">
         <v>43709</v>
       </c>
-      <c r="H5" s="7">
-        <v>45169</v>
-      </c>
-      <c r="I5">
-        <v>2189469</v>
-      </c>
-      <c r="J5">
-        <v>0.1</v>
-      </c>
-      <c r="K5">
-        <v>0.1</v>
-      </c>
-      <c r="L5" t="b">
-        <v>0</v>
-      </c>
-      <c r="N5" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
-        <v>12</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="G6" s="6">
-        <v>43709</v>
-      </c>
-      <c r="H6" s="7">
-        <v>44074</v>
-      </c>
-      <c r="I6">
-        <v>628012</v>
-      </c>
-      <c r="J6">
-        <v>0.24</v>
-      </c>
-      <c r="K6">
-        <v>0.24</v>
-      </c>
-      <c r="L6" t="b">
-        <v>1</v>
-      </c>
-      <c r="N6" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
-        <v>17</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="D7" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="F7" t="s">
-        <v>21</v>
-      </c>
-      <c r="G7" s="8">
-        <v>40344</v>
-      </c>
-      <c r="H7" s="8">
-        <v>41804</v>
-      </c>
-      <c r="I7">
-        <v>1631403</v>
-      </c>
-      <c r="J7">
-        <v>0.51</v>
-      </c>
-      <c r="K7">
-        <v>0.61</v>
-      </c>
-      <c r="L7" t="b">
-        <v>0</v>
-      </c>
-      <c r="M7" t="s">
-        <v>35</v>
-      </c>
-      <c r="N7" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
-        <v>17</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="D8" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="F8" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="G8" s="9">
-        <v>40725</v>
-      </c>
-      <c r="H8" s="9">
-        <v>43252</v>
-      </c>
-      <c r="I8">
-        <v>11677134</v>
-      </c>
-      <c r="J8">
-        <v>0.1</v>
-      </c>
-      <c r="K8">
-        <v>0.47</v>
-      </c>
-      <c r="L8" t="b">
-        <v>0</v>
-      </c>
-      <c r="M8" t="s">
-        <v>34</v>
-      </c>
-      <c r="N8" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
-        <v>17</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="D9" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="F9" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="G9" s="9">
-        <v>40330</v>
-      </c>
-      <c r="H9" s="9">
-        <v>41760</v>
-      </c>
-      <c r="I9">
-        <v>1596638</v>
-      </c>
-      <c r="J9">
-        <v>0.28000000000000003</v>
-      </c>
-      <c r="K9">
-        <v>0.45</v>
-      </c>
-      <c r="L9" t="b">
-        <v>0</v>
-      </c>
-      <c r="M9" t="s">
-        <v>36</v>
-      </c>
-      <c r="N9" t="b">
-        <v>0</v>
+      <c r="H15" s="1">
+        <v>44439</v>
+      </c>
+      <c r="I15" s="3">
+        <v>224885</v>
+      </c>
+      <c r="J15" s="3">
+        <v>0.35</v>
+      </c>
+      <c r="K15" s="3">
+        <v>0.35</v>
+      </c>
+      <c r="L15" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="M15" s="3"/>
+      <c r="N15" s="3" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A16" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="B16" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="D16" s="3"/>
+      <c r="E16" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="F16" s="3"/>
+      <c r="G16" s="1">
+        <v>43359</v>
+      </c>
+      <c r="H16" s="5">
+        <v>43997</v>
+      </c>
+      <c r="I16" s="3">
+        <v>70000</v>
+      </c>
+      <c r="J16" s="3">
+        <v>0.375</v>
+      </c>
+      <c r="K16" s="3">
+        <v>0.375</v>
+      </c>
+      <c r="L16" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="M16" s="3"/>
+      <c r="N16" s="3" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A17" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="B17" s="13" t="s">
+        <v>59</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="D17" s="3"/>
+      <c r="E17" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="F17" s="3"/>
+      <c r="G17" s="1">
+        <v>43040</v>
+      </c>
+      <c r="H17" s="5">
+        <v>43404</v>
+      </c>
+      <c r="I17" s="3">
+        <v>54574</v>
+      </c>
+      <c r="J17" s="3">
+        <v>0.35</v>
+      </c>
+      <c r="K17" s="3">
+        <v>0.35</v>
+      </c>
+      <c r="L17" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="M17" s="3"/>
+      <c r="N17" s="3" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A18" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="B18" s="13" t="s">
+        <v>61</v>
+      </c>
+      <c r="C18" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="D18" s="3"/>
+      <c r="E18" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="F18" s="3"/>
+      <c r="G18" s="1">
+        <v>42736</v>
+      </c>
+      <c r="H18" s="5">
+        <v>43100</v>
+      </c>
+      <c r="I18" s="3">
+        <v>19946</v>
+      </c>
+      <c r="J18" s="3">
+        <v>0.19</v>
+      </c>
+      <c r="K18" s="3">
+        <v>0.19</v>
+      </c>
+      <c r="L18" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="M18" s="3"/>
+      <c r="N18" s="3" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A19" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="B19" s="13" t="s">
+        <v>53</v>
+      </c>
+      <c r="C19" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="D19" s="3"/>
+      <c r="E19" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="F19" s="3"/>
+      <c r="G19" s="2">
+        <v>42552</v>
+      </c>
+      <c r="H19" s="2">
+        <f>DATE(YEAR(G19)+1,MONTH(G19),DAY(G19))</f>
+        <v>42917</v>
+      </c>
+      <c r="I19" s="3">
+        <v>2968980</v>
+      </c>
+      <c r="J19" s="3">
+        <v>0.65</v>
+      </c>
+      <c r="K19" s="3">
+        <v>0.65</v>
+      </c>
+      <c r="L19" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="M19" s="3"/>
+      <c r="N19" s="3" t="b">
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/data/grants.xlsx
+++ b/data/grants.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/daniel/anderson-cv/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68B2DD96-13DF-5E48-9E61-6AEB42A02F1C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A64D827-3D75-A346-9560-EB2A9F950269}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="34080" yWindow="7280" windowWidth="27640" windowHeight="16940" xr2:uid="{2F3CED88-84B5-4249-9663-01EB28D3FE1D}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="68">
   <si>
     <t>title</t>
   </si>
@@ -214,6 +214,21 @@
   </si>
   <si>
     <t>Russell Sage Foundation</t>
+  </si>
+  <si>
+    <t>2020-JX-FX-0003</t>
+  </si>
+  <si>
+    <t>National Institute of Justice</t>
+  </si>
+  <si>
+    <t>Co-Investigator</t>
+  </si>
+  <si>
+    <t>Leslie Leve</t>
+  </si>
+  <si>
+    <t>Exploring Pathways to Desistance and Adjustment in Adulthood Among Juvenile Justice-Involved Females</t>
   </si>
 </sst>
 </file>
@@ -223,7 +238,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="[$-409]d\-mmm\-yy;@"/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -254,6 +269,13 @@
       <name val="Verdana"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="15"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -275,7 +297,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyProtection="1">
       <protection locked="0"/>
@@ -292,6 +314,7 @@
     <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="17" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -606,10 +629,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4605E665-D6A4-C749-961B-EF6BCFDB74F3}">
-  <dimension ref="A1:N19"/>
+  <dimension ref="A1:N20"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="N22" sqref="N22"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A7" sqref="A7:XFD7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -855,40 +878,42 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:14" ht="20" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B7" s="4" t="s">
-        <v>49</v>
+      <c r="B7" s="14" t="s">
+        <v>67</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="D7" s="4"/>
+        <v>64</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>63</v>
+      </c>
       <c r="E7" s="4" t="s">
-        <v>24</v>
+        <v>65</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="G7" s="1">
-        <v>44032</v>
-      </c>
-      <c r="H7" s="1">
-        <v>44124</v>
+        <v>66</v>
+      </c>
+      <c r="G7" s="6">
+        <v>44197</v>
+      </c>
+      <c r="H7" s="6">
+        <v>44926</v>
       </c>
       <c r="I7" s="3">
-        <v>83000</v>
+        <v>817514</v>
       </c>
       <c r="J7" s="3">
-        <v>0.2</v>
+        <v>0.1</v>
       </c>
       <c r="K7" s="3">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="L7" s="3" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M7" s="3"/>
       <c r="N7" s="3" t="b">
@@ -900,32 +925,32 @@
         <v>11</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>22</v>
+        <v>49</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="D8" s="3"/>
+        <v>45</v>
+      </c>
+      <c r="D8" s="4"/>
       <c r="E8" s="4" t="s">
         <v>24</v>
       </c>
       <c r="F8" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="G8" s="6">
-        <v>43709</v>
-      </c>
-      <c r="H8" s="8">
-        <v>44074</v>
+      <c r="G8" s="1">
+        <v>44032</v>
+      </c>
+      <c r="H8" s="1">
+        <v>44124</v>
       </c>
       <c r="I8" s="3">
-        <v>628012</v>
+        <v>83000</v>
       </c>
       <c r="J8" s="3">
-        <v>0.24</v>
+        <v>0.2</v>
       </c>
       <c r="K8" s="3">
-        <v>0.24</v>
+        <v>0.2</v>
       </c>
       <c r="L8" s="3" t="b">
         <v>1</v>
@@ -940,35 +965,35 @@
         <v>11</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="D9" s="4"/>
+        <v>23</v>
+      </c>
+      <c r="D9" s="3"/>
       <c r="E9" s="4" t="s">
-        <v>13</v>
+        <v>24</v>
       </c>
       <c r="F9" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="G9" s="8">
+        <v>20</v>
+      </c>
+      <c r="G9" s="6">
         <v>43709</v>
       </c>
       <c r="H9" s="8">
-        <v>45169</v>
+        <v>44074</v>
       </c>
       <c r="I9" s="3">
-        <v>2189469</v>
+        <v>628012</v>
       </c>
       <c r="J9" s="3">
-        <v>0.1</v>
+        <v>0.24</v>
       </c>
       <c r="K9" s="3">
-        <v>0.1</v>
+        <v>0.24</v>
       </c>
       <c r="L9" s="3" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M9" s="3"/>
       <c r="N9" s="3" t="b">
@@ -977,44 +1002,40 @@
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A10" s="3" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="D10" s="10" t="s">
-        <v>18</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="D10" s="4"/>
       <c r="E10" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="F10" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="G10" s="11">
-        <v>40344</v>
-      </c>
-      <c r="H10" s="11">
-        <v>41804</v>
+        <v>13</v>
+      </c>
+      <c r="F10" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="G10" s="8">
+        <v>43709</v>
+      </c>
+      <c r="H10" s="8">
+        <v>45169</v>
       </c>
       <c r="I10" s="3">
-        <v>1631403</v>
+        <v>2189469</v>
       </c>
       <c r="J10" s="3">
-        <v>0.51</v>
+        <v>0.1</v>
       </c>
       <c r="K10" s="3">
-        <v>0.61</v>
+        <v>0.1</v>
       </c>
       <c r="L10" s="3" t="b">
         <v>0</v>
       </c>
-      <c r="M10" s="3" t="s">
-        <v>34</v>
-      </c>
+      <c r="M10" s="3"/>
       <c r="N10" s="3" t="b">
         <v>0</v>
       </c>
@@ -1024,40 +1045,40 @@
         <v>16</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="C11" s="4" t="s">
         <v>29</v>
       </c>
       <c r="D11" s="10" t="s">
-        <v>31</v>
+        <v>18</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="F11" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="F11" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="G11" s="12">
-        <v>40725</v>
-      </c>
-      <c r="H11" s="12">
-        <v>43252</v>
+      <c r="G11" s="11">
+        <v>40344</v>
+      </c>
+      <c r="H11" s="11">
+        <v>41804</v>
       </c>
       <c r="I11" s="3">
-        <v>11677134</v>
+        <v>1631403</v>
       </c>
       <c r="J11" s="3">
-        <v>0.1</v>
+        <v>0.51</v>
       </c>
       <c r="K11" s="3">
-        <v>0.47</v>
+        <v>0.61</v>
       </c>
       <c r="L11" s="3" t="b">
         <v>0</v>
       </c>
       <c r="M11" s="3" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="N11" s="3" t="b">
         <v>0</v>
@@ -1068,40 +1089,40 @@
         <v>16</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="C12" s="4" t="s">
         <v>29</v>
       </c>
       <c r="D12" s="10" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="E12" s="4" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="F12" s="4" t="s">
         <v>20</v>
       </c>
       <c r="G12" s="12">
-        <v>40330</v>
+        <v>40725</v>
       </c>
       <c r="H12" s="12">
-        <v>41760</v>
+        <v>43252</v>
       </c>
       <c r="I12" s="3">
-        <v>1596638</v>
+        <v>11677134</v>
       </c>
       <c r="J12" s="3">
-        <v>0.28000000000000003</v>
+        <v>0.1</v>
       </c>
       <c r="K12" s="3">
-        <v>0.45</v>
+        <v>0.47</v>
       </c>
       <c r="L12" s="3" t="b">
         <v>0</v>
       </c>
       <c r="M12" s="3" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="N12" s="3" t="b">
         <v>0</v>
@@ -1109,40 +1130,46 @@
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A13" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="B13" s="13" t="s">
-        <v>52</v>
+        <v>16</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>36</v>
       </c>
       <c r="C13" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="D13" s="3"/>
+      <c r="D13" s="10" t="s">
+        <v>37</v>
+      </c>
       <c r="E13" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="F13" s="3"/>
-      <c r="G13" s="1">
-        <v>44075</v>
-      </c>
-      <c r="H13" s="1">
-        <v>44439</v>
+        <v>38</v>
+      </c>
+      <c r="F13" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="G13" s="12">
+        <v>40330</v>
+      </c>
+      <c r="H13" s="12">
+        <v>41760</v>
       </c>
       <c r="I13" s="3">
-        <v>1399163</v>
+        <v>1596638</v>
       </c>
       <c r="J13" s="3">
-        <v>0.35</v>
+        <v>0.28000000000000003</v>
       </c>
       <c r="K13" s="3">
-        <v>0.35</v>
+        <v>0.45</v>
       </c>
       <c r="L13" s="3" t="b">
         <v>0</v>
       </c>
-      <c r="M13" s="3"/>
+      <c r="M13" s="3" t="s">
+        <v>35</v>
+      </c>
       <c r="N13" s="3" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.2">
@@ -1150,10 +1177,10 @@
         <v>51</v>
       </c>
       <c r="B14" s="13" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>56</v>
+        <v>29</v>
       </c>
       <c r="D14" s="3"/>
       <c r="E14" s="4" t="s">
@@ -1161,19 +1188,19 @@
       </c>
       <c r="F14" s="3"/>
       <c r="G14" s="1">
-        <v>43473</v>
+        <v>44075</v>
       </c>
       <c r="H14" s="1">
-        <v>43921</v>
+        <v>44439</v>
       </c>
       <c r="I14" s="3">
-        <v>25000</v>
+        <v>1399163</v>
       </c>
       <c r="J14" s="3">
-        <v>0.13</v>
+        <v>0.35</v>
       </c>
       <c r="K14" s="3">
-        <v>0.13</v>
+        <v>0.35</v>
       </c>
       <c r="L14" s="3" t="b">
         <v>0</v>
@@ -1188,10 +1215,10 @@
         <v>51</v>
       </c>
       <c r="B15" s="13" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>29</v>
+        <v>56</v>
       </c>
       <c r="D15" s="3"/>
       <c r="E15" s="4" t="s">
@@ -1199,19 +1226,19 @@
       </c>
       <c r="F15" s="3"/>
       <c r="G15" s="1">
-        <v>43709</v>
+        <v>43473</v>
       </c>
       <c r="H15" s="1">
-        <v>44439</v>
+        <v>43921</v>
       </c>
       <c r="I15" s="3">
-        <v>224885</v>
+        <v>25000</v>
       </c>
       <c r="J15" s="3">
-        <v>0.35</v>
+        <v>0.13</v>
       </c>
       <c r="K15" s="3">
-        <v>0.35</v>
+        <v>0.13</v>
       </c>
       <c r="L15" s="3" t="b">
         <v>0</v>
@@ -1226,10 +1253,10 @@
         <v>51</v>
       </c>
       <c r="B16" s="13" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>58</v>
+        <v>29</v>
       </c>
       <c r="D16" s="3"/>
       <c r="E16" s="4" t="s">
@@ -1237,19 +1264,19 @@
       </c>
       <c r="F16" s="3"/>
       <c r="G16" s="1">
-        <v>43359</v>
-      </c>
-      <c r="H16" s="5">
-        <v>43997</v>
+        <v>43709</v>
+      </c>
+      <c r="H16" s="1">
+        <v>44439</v>
       </c>
       <c r="I16" s="3">
-        <v>70000</v>
+        <v>224885</v>
       </c>
       <c r="J16" s="3">
-        <v>0.375</v>
+        <v>0.35</v>
       </c>
       <c r="K16" s="3">
-        <v>0.375</v>
+        <v>0.35</v>
       </c>
       <c r="L16" s="3" t="b">
         <v>0</v>
@@ -1264,10 +1291,10 @@
         <v>51</v>
       </c>
       <c r="B17" s="13" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="D17" s="3"/>
       <c r="E17" s="4" t="s">
@@ -1275,19 +1302,19 @@
       </c>
       <c r="F17" s="3"/>
       <c r="G17" s="1">
-        <v>43040</v>
+        <v>43359</v>
       </c>
       <c r="H17" s="5">
-        <v>43404</v>
+        <v>43997</v>
       </c>
       <c r="I17" s="3">
-        <v>54574</v>
+        <v>70000</v>
       </c>
       <c r="J17" s="3">
-        <v>0.35</v>
+        <v>0.375</v>
       </c>
       <c r="K17" s="3">
-        <v>0.35</v>
+        <v>0.375</v>
       </c>
       <c r="L17" s="3" t="b">
         <v>0</v>
@@ -1302,10 +1329,10 @@
         <v>51</v>
       </c>
       <c r="B18" s="13" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D18" s="3"/>
       <c r="E18" s="4" t="s">
@@ -1313,19 +1340,19 @@
       </c>
       <c r="F18" s="3"/>
       <c r="G18" s="1">
-        <v>42736</v>
+        <v>43040</v>
       </c>
       <c r="H18" s="5">
-        <v>43100</v>
+        <v>43404</v>
       </c>
       <c r="I18" s="3">
-        <v>19946</v>
+        <v>54574</v>
       </c>
       <c r="J18" s="3">
-        <v>0.19</v>
+        <v>0.35</v>
       </c>
       <c r="K18" s="3">
-        <v>0.19</v>
+        <v>0.35</v>
       </c>
       <c r="L18" s="3" t="b">
         <v>0</v>
@@ -1340,37 +1367,75 @@
         <v>51</v>
       </c>
       <c r="B19" s="13" t="s">
-        <v>53</v>
+        <v>61</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>48</v>
+        <v>62</v>
       </c>
       <c r="D19" s="3"/>
       <c r="E19" s="4" t="s">
         <v>5</v>
       </c>
       <c r="F19" s="3"/>
-      <c r="G19" s="2">
-        <v>42552</v>
-      </c>
-      <c r="H19" s="2">
-        <f>DATE(YEAR(G19)+1,MONTH(G19),DAY(G19))</f>
-        <v>42917</v>
+      <c r="G19" s="1">
+        <v>42736</v>
+      </c>
+      <c r="H19" s="5">
+        <v>43100</v>
       </c>
       <c r="I19" s="3">
-        <v>2968980</v>
+        <v>19946</v>
       </c>
       <c r="J19" s="3">
-        <v>0.65</v>
+        <v>0.19</v>
       </c>
       <c r="K19" s="3">
-        <v>0.65</v>
+        <v>0.19</v>
       </c>
       <c r="L19" s="3" t="b">
         <v>0</v>
       </c>
       <c r="M19" s="3"/>
       <c r="N19" s="3" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A20" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="B20" s="13" t="s">
+        <v>53</v>
+      </c>
+      <c r="C20" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="D20" s="3"/>
+      <c r="E20" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="F20" s="3"/>
+      <c r="G20" s="2">
+        <v>42552</v>
+      </c>
+      <c r="H20" s="2">
+        <f>DATE(YEAR(G20)+1,MONTH(G20),DAY(G20))</f>
+        <v>42917</v>
+      </c>
+      <c r="I20" s="3">
+        <v>2968980</v>
+      </c>
+      <c r="J20" s="3">
+        <v>0.65</v>
+      </c>
+      <c r="K20" s="3">
+        <v>0.65</v>
+      </c>
+      <c r="L20" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="M20" s="3"/>
+      <c r="N20" s="3" t="b">
         <v>1</v>
       </c>
     </row>

--- a/data/grants.xlsx
+++ b/data/grants.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/daniel/anderson-cv/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A64D827-3D75-A346-9560-EB2A9F950269}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24CCD9E1-A35A-A245-9222-F246A086B568}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="34080" yWindow="7280" windowWidth="27640" windowHeight="16940" xr2:uid="{2F3CED88-84B5-4249-9663-01EB28D3FE1D}"/>
+    <workbookView xWindow="2140" yWindow="5200" windowWidth="27640" windowHeight="16940" xr2:uid="{2F3CED88-84B5-4249-9663-01EB28D3FE1D}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="69">
   <si>
     <t>title</t>
   </si>
@@ -229,6 +229,9 @@
   </si>
   <si>
     <t>Exploring Pathways to Desistance and Adjustment in Adulthood Among Juvenile Justice-Involved Females</t>
+  </si>
+  <si>
+    <t>omit</t>
   </si>
 </sst>
 </file>
@@ -632,7 +635,7 @@
   <dimension ref="A1:N20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7:XFD7"/>
+      <selection activeCell="A20" sqref="A20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1212,7 +1215,7 @@
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A15" s="3" t="s">
-        <v>51</v>
+        <v>68</v>
       </c>
       <c r="B15" s="13" t="s">
         <v>55</v>
@@ -1288,7 +1291,7 @@
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A17" s="3" t="s">
-        <v>51</v>
+        <v>68</v>
       </c>
       <c r="B17" s="13" t="s">
         <v>57</v>
@@ -1326,7 +1329,7 @@
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A18" s="3" t="s">
-        <v>51</v>
+        <v>68</v>
       </c>
       <c r="B18" s="13" t="s">
         <v>59</v>
@@ -1364,7 +1367,7 @@
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A19" s="3" t="s">
-        <v>51</v>
+        <v>68</v>
       </c>
       <c r="B19" s="13" t="s">
         <v>61</v>

--- a/data/grants.xlsx
+++ b/data/grants.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/daniel/anderson-cv/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24CCD9E1-A35A-A245-9222-F246A086B568}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57B3C438-F9DC-874B-AB34-A67E8872E5EA}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2140" yWindow="5200" windowWidth="27640" windowHeight="16940" xr2:uid="{2F3CED88-84B5-4249-9663-01EB28D3FE1D}"/>
+    <workbookView xWindow="32320" yWindow="3620" windowWidth="37420" windowHeight="20740" xr2:uid="{2F3CED88-84B5-4249-9663-01EB28D3FE1D}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -39,18 +39,12 @@
     <t>pi</t>
   </si>
   <si>
-    <t>Community, opportunity, and disparity in educational systems: Project CODES</t>
-  </si>
-  <si>
     <t>Principal Investigator</t>
   </si>
   <si>
     <t>budget</t>
   </si>
   <si>
-    <t>Community health and school readiness: Closing the gap</t>
-  </si>
-  <si>
     <t>Data Science Initiative Seed Funding Program</t>
   </si>
   <si>
@@ -232,6 +226,12 @@
   </si>
   <si>
     <t>omit</t>
+  </si>
+  <si>
+    <t>School Districts’ use of Social Media and Student Privacy: Using facial recognition and NLP to understand student identifiability</t>
+  </si>
+  <si>
+    <t>Malleable systemic factors relating to inequities in educational outcomes: School exclusions and absenteeism</t>
   </si>
 </sst>
 </file>
@@ -635,7 +635,7 @@
   <dimension ref="A1:N20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A20" sqref="A20"/>
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -645,7 +645,7 @@
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>0</v>
@@ -654,7 +654,7 @@
         <v>1</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E1" s="3" t="s">
         <v>2</v>
@@ -663,257 +663,271 @@
         <v>3</v>
       </c>
       <c r="G1" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="K1" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="L1" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="H1" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="I1" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="J1" s="3" t="s">
+      <c r="M1" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="N1" s="3" t="s">
         <v>39</v>
-      </c>
-      <c r="K1" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="L1" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="M1" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="N1" s="3" t="s">
-        <v>41</v>
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>4</v>
+        <v>40</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="D2" s="4"/>
       <c r="E2" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="F2" s="3"/>
-      <c r="G2" s="5">
-        <v>44378</v>
-      </c>
-      <c r="H2" s="6">
-        <v>45838</v>
-      </c>
-      <c r="I2" s="7">
-        <v>1699963</v>
+        <v>42</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="G2" s="1">
+        <v>43937</v>
+      </c>
+      <c r="H2" s="1">
+        <v>44074</v>
+      </c>
+      <c r="I2" s="3">
+        <v>215000</v>
       </c>
       <c r="J2" s="3">
-        <v>0.3</v>
+        <v>0.45</v>
       </c>
       <c r="K2" s="3">
-        <v>0.3</v>
+        <v>0.45</v>
       </c>
       <c r="L2" s="3" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M2" s="3"/>
       <c r="N2" s="3" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>46</v>
+        <v>14</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>47</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="D3" s="4"/>
       <c r="E3" s="4" t="s">
-        <v>44</v>
+        <v>22</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="G3" s="8">
-        <v>44075</v>
-      </c>
-      <c r="H3" s="6">
-        <v>45535</v>
-      </c>
-      <c r="I3" s="9">
-        <v>1476155</v>
+        <v>18</v>
+      </c>
+      <c r="G3" s="1">
+        <v>44032</v>
+      </c>
+      <c r="H3" s="1">
+        <v>44124</v>
+      </c>
+      <c r="I3" s="3">
+        <v>83000</v>
       </c>
       <c r="J3" s="3">
-        <v>0.15</v>
+        <v>0.2</v>
       </c>
       <c r="K3" s="3">
-        <v>0.15</v>
+        <v>0.2</v>
       </c>
       <c r="L3" s="3" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M3" s="3"/>
       <c r="N3" s="3" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>50</v>
+        <v>14</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>19</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="D4" s="4"/>
+        <v>27</v>
+      </c>
+      <c r="D4" s="10" t="s">
+        <v>16</v>
+      </c>
       <c r="E4" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="F4" s="4"/>
-      <c r="G4" s="5">
-        <v>44013</v>
-      </c>
-      <c r="H4" s="5">
-        <v>44742</v>
-      </c>
-      <c r="I4" s="9">
-        <v>1245936</v>
+        <v>17</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="G4" s="11">
+        <v>40344</v>
+      </c>
+      <c r="H4" s="11">
+        <v>41804</v>
+      </c>
+      <c r="I4" s="3">
+        <v>1631403</v>
       </c>
       <c r="J4" s="3">
-        <v>0.2</v>
+        <v>0.51</v>
       </c>
       <c r="K4" s="3">
-        <v>0.4</v>
+        <v>0.61</v>
       </c>
       <c r="L4" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="M4" s="3"/>
+        <v>0</v>
+      </c>
+      <c r="M4" s="3" t="s">
+        <v>32</v>
+      </c>
       <c r="N4" s="3" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>7</v>
+        <v>26</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="D5" s="4"/>
+        <v>27</v>
+      </c>
+      <c r="D5" s="10" t="s">
+        <v>29</v>
+      </c>
       <c r="E5" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="F5" s="3"/>
-      <c r="G5" s="6">
-        <v>43862</v>
-      </c>
-      <c r="H5" s="6">
-        <v>44227</v>
+        <v>28</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="G5" s="12">
+        <v>40725</v>
+      </c>
+      <c r="H5" s="12">
+        <v>43252</v>
       </c>
       <c r="I5" s="3">
-        <v>48903.17</v>
+        <v>11677134</v>
       </c>
       <c r="J5" s="3">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="K5" s="3">
-        <v>0</v>
+        <v>0.47</v>
       </c>
       <c r="L5" s="3" t="b">
         <v>0</v>
       </c>
-      <c r="M5" s="3"/>
+      <c r="M5" s="3" t="s">
+        <v>31</v>
+      </c>
       <c r="N5" s="3" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="D6" s="4"/>
+        <v>27</v>
+      </c>
+      <c r="D6" s="10" t="s">
+        <v>35</v>
+      </c>
       <c r="E6" s="4" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="G6" s="1">
-        <v>43937</v>
-      </c>
-      <c r="H6" s="1">
-        <v>44074</v>
+        <v>18</v>
+      </c>
+      <c r="G6" s="12">
+        <v>40330</v>
+      </c>
+      <c r="H6" s="12">
+        <v>41760</v>
       </c>
       <c r="I6" s="3">
-        <v>215000</v>
+        <v>1596638</v>
       </c>
       <c r="J6" s="3">
-        <v>0.45</v>
+        <v>0.28000000000000003</v>
       </c>
       <c r="K6" s="3">
         <v>0.45</v>
       </c>
       <c r="L6" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="M6" s="3"/>
+        <v>0</v>
+      </c>
+      <c r="M6" s="3" t="s">
+        <v>33</v>
+      </c>
       <c r="N6" s="3" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:14" ht="20" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="B7" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7" s="4" t="s">
         <v>67</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="D7" s="4" t="s">
-        <v>63</v>
-      </c>
+        <v>6</v>
+      </c>
+      <c r="D7" s="4"/>
       <c r="E7" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="F7" s="4" t="s">
-        <v>66</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="F7" s="3"/>
       <c r="G7" s="6">
-        <v>44197</v>
+        <v>43862</v>
       </c>
       <c r="H7" s="6">
-        <v>44926</v>
+        <v>44592</v>
       </c>
       <c r="I7" s="3">
-        <v>817514</v>
+        <v>48903.17</v>
       </c>
       <c r="J7" s="3">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="K7" s="3">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="L7" s="3" t="b">
         <v>0</v>
@@ -923,40 +937,42 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:14" ht="20" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="B8" s="4" t="s">
-        <v>49</v>
+        <v>9</v>
+      </c>
+      <c r="B8" s="14" t="s">
+        <v>65</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="D8" s="4"/>
+        <v>62</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>61</v>
+      </c>
       <c r="E8" s="4" t="s">
-        <v>24</v>
+        <v>63</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="G8" s="1">
-        <v>44032</v>
-      </c>
-      <c r="H8" s="1">
-        <v>44124</v>
+        <v>64</v>
+      </c>
+      <c r="G8" s="6">
+        <v>44197</v>
+      </c>
+      <c r="H8" s="6">
+        <v>44926</v>
       </c>
       <c r="I8" s="3">
-        <v>83000</v>
+        <v>817514</v>
       </c>
       <c r="J8" s="3">
-        <v>0.2</v>
+        <v>0.1</v>
       </c>
       <c r="K8" s="3">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="L8" s="3" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M8" s="3"/>
       <c r="N8" s="3" t="b">
@@ -965,26 +981,26 @@
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A9" s="3" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D9" s="3"/>
       <c r="E9" s="4" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="F9" s="4" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="G9" s="6">
-        <v>43709</v>
+        <v>44075</v>
       </c>
       <c r="H9" s="8">
-        <v>44074</v>
+        <v>44439</v>
       </c>
       <c r="I9" s="3">
         <v>628012</v>
@@ -1005,20 +1021,20 @@
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A10" s="3" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D10" s="4"/>
       <c r="E10" s="4" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F10" s="4" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="G10" s="8">
         <v>43709</v>
@@ -1045,177 +1061,161 @@
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A11" s="3" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>21</v>
+        <v>68</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="D11" s="10" t="s">
-        <v>18</v>
-      </c>
+        <v>27</v>
+      </c>
+      <c r="D11" s="4"/>
       <c r="E11" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="F11" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="G11" s="11">
-        <v>40344</v>
-      </c>
-      <c r="H11" s="11">
-        <v>41804</v>
-      </c>
-      <c r="I11" s="3">
-        <v>1631403</v>
+        <v>4</v>
+      </c>
+      <c r="F11" s="3"/>
+      <c r="G11" s="5">
+        <v>44378</v>
+      </c>
+      <c r="H11" s="6">
+        <v>45838</v>
+      </c>
+      <c r="I11" s="7">
+        <v>1699904</v>
       </c>
       <c r="J11" s="3">
-        <v>0.51</v>
+        <v>0.28000000000000003</v>
       </c>
       <c r="K11" s="3">
-        <v>0.61</v>
+        <v>0.3</v>
       </c>
       <c r="L11" s="3" t="b">
         <v>0</v>
       </c>
-      <c r="M11" s="3" t="s">
-        <v>34</v>
-      </c>
+      <c r="M11" s="3"/>
       <c r="N11" s="3" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A12" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="B12" s="4" t="s">
-        <v>28</v>
+        <v>49</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>44</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="D12" s="10" t="s">
-        <v>31</v>
-      </c>
+        <v>46</v>
+      </c>
+      <c r="D12" s="4"/>
       <c r="E12" s="4" t="s">
-        <v>30</v>
+        <v>42</v>
       </c>
       <c r="F12" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="G12" s="12">
-        <v>40725</v>
-      </c>
-      <c r="H12" s="12">
-        <v>43252</v>
-      </c>
-      <c r="I12" s="3">
-        <v>11677134</v>
+        <v>45</v>
+      </c>
+      <c r="G12" s="8">
+        <v>44075</v>
+      </c>
+      <c r="H12" s="6">
+        <v>45535</v>
+      </c>
+      <c r="I12" s="9">
+        <v>1476155</v>
       </c>
       <c r="J12" s="3">
-        <v>0.1</v>
+        <v>0.15</v>
       </c>
       <c r="K12" s="3">
-        <v>0.47</v>
+        <v>0.15</v>
       </c>
       <c r="L12" s="3" t="b">
         <v>0</v>
       </c>
-      <c r="M12" s="3" t="s">
-        <v>33</v>
-      </c>
+      <c r="M12" s="3"/>
       <c r="N12" s="3" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A13" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="B13" s="4" t="s">
-        <v>36</v>
+        <v>66</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>48</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="D13" s="10" t="s">
-        <v>37</v>
-      </c>
+        <v>43</v>
+      </c>
+      <c r="D13" s="4"/>
       <c r="E13" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="F13" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="G13" s="12">
-        <v>40330</v>
-      </c>
-      <c r="H13" s="12">
-        <v>41760</v>
-      </c>
-      <c r="I13" s="3">
-        <v>1596638</v>
+        <v>11</v>
+      </c>
+      <c r="F13" s="4"/>
+      <c r="G13" s="5">
+        <v>44013</v>
+      </c>
+      <c r="H13" s="5">
+        <v>44742</v>
+      </c>
+      <c r="I13" s="9">
+        <v>1245936</v>
       </c>
       <c r="J13" s="3">
-        <v>0.28000000000000003</v>
+        <v>0.2</v>
       </c>
       <c r="K13" s="3">
-        <v>0.45</v>
+        <v>0.4</v>
       </c>
       <c r="L13" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="M13" s="3" t="s">
-        <v>35</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="M13" s="3"/>
       <c r="N13" s="3" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A14" s="3" t="s">
-        <v>51</v>
+        <v>66</v>
       </c>
       <c r="B14" s="13" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>29</v>
+        <v>54</v>
       </c>
       <c r="D14" s="3"/>
       <c r="E14" s="4" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F14" s="3"/>
       <c r="G14" s="1">
-        <v>44075</v>
+        <v>43473</v>
       </c>
       <c r="H14" s="1">
-        <v>44439</v>
+        <v>43921</v>
       </c>
       <c r="I14" s="3">
-        <v>1399163</v>
+        <v>25000</v>
       </c>
       <c r="J14" s="3">
-        <v>0.35</v>
+        <v>0.13</v>
       </c>
       <c r="K14" s="3">
-        <v>0.35</v>
+        <v>0.13</v>
       </c>
       <c r="L14" s="3" t="b">
         <v>0</v>
       </c>
       <c r="M14" s="3"/>
       <c r="N14" s="3" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A15" s="3" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B15" s="13" t="s">
         <v>55</v>
@@ -1225,55 +1225,55 @@
       </c>
       <c r="D15" s="3"/>
       <c r="E15" s="4" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F15" s="3"/>
       <c r="G15" s="1">
-        <v>43473</v>
-      </c>
-      <c r="H15" s="1">
-        <v>43921</v>
+        <v>43359</v>
+      </c>
+      <c r="H15" s="5">
+        <v>43997</v>
       </c>
       <c r="I15" s="3">
-        <v>25000</v>
+        <v>70000</v>
       </c>
       <c r="J15" s="3">
-        <v>0.13</v>
+        <v>0.375</v>
       </c>
       <c r="K15" s="3">
-        <v>0.13</v>
+        <v>0.375</v>
       </c>
       <c r="L15" s="3" t="b">
         <v>0</v>
       </c>
       <c r="M15" s="3"/>
       <c r="N15" s="3" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A16" s="3" t="s">
-        <v>51</v>
+        <v>66</v>
       </c>
       <c r="B16" s="13" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>29</v>
+        <v>58</v>
       </c>
       <c r="D16" s="3"/>
       <c r="E16" s="4" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F16" s="3"/>
       <c r="G16" s="1">
-        <v>43709</v>
-      </c>
-      <c r="H16" s="1">
-        <v>44439</v>
+        <v>43040</v>
+      </c>
+      <c r="H16" s="5">
+        <v>43404</v>
       </c>
       <c r="I16" s="3">
-        <v>224885</v>
+        <v>54574</v>
       </c>
       <c r="J16" s="3">
         <v>0.35</v>
@@ -1286,70 +1286,70 @@
       </c>
       <c r="M16" s="3"/>
       <c r="N16" s="3" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A17" s="3" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B17" s="13" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="D17" s="3"/>
       <c r="E17" s="4" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F17" s="3"/>
       <c r="G17" s="1">
-        <v>43359</v>
+        <v>42736</v>
       </c>
       <c r="H17" s="5">
-        <v>43997</v>
+        <v>43100</v>
       </c>
       <c r="I17" s="3">
-        <v>70000</v>
+        <v>19946</v>
       </c>
       <c r="J17" s="3">
-        <v>0.375</v>
+        <v>0.19</v>
       </c>
       <c r="K17" s="3">
-        <v>0.375</v>
+        <v>0.19</v>
       </c>
       <c r="L17" s="3" t="b">
         <v>0</v>
       </c>
       <c r="M17" s="3"/>
       <c r="N17" s="3" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A18" s="3" t="s">
-        <v>68</v>
+        <v>49</v>
       </c>
       <c r="B18" s="13" t="s">
-        <v>59</v>
+        <v>50</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>60</v>
+        <v>27</v>
       </c>
       <c r="D18" s="3"/>
       <c r="E18" s="4" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F18" s="3"/>
       <c r="G18" s="1">
-        <v>43040</v>
-      </c>
-      <c r="H18" s="5">
-        <v>43404</v>
+        <v>44075</v>
+      </c>
+      <c r="H18" s="1">
+        <v>44439</v>
       </c>
       <c r="I18" s="3">
-        <v>54574</v>
+        <v>1399163</v>
       </c>
       <c r="J18" s="3">
         <v>0.35</v>
@@ -1362,60 +1362,60 @@
       </c>
       <c r="M18" s="3"/>
       <c r="N18" s="3" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A19" s="3" t="s">
-        <v>68</v>
+        <v>49</v>
       </c>
       <c r="B19" s="13" t="s">
-        <v>61</v>
+        <v>52</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>62</v>
+        <v>27</v>
       </c>
       <c r="D19" s="3"/>
       <c r="E19" s="4" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F19" s="3"/>
       <c r="G19" s="1">
-        <v>42736</v>
-      </c>
-      <c r="H19" s="5">
-        <v>43100</v>
+        <v>43709</v>
+      </c>
+      <c r="H19" s="1">
+        <v>44439</v>
       </c>
       <c r="I19" s="3">
-        <v>19946</v>
+        <v>224885</v>
       </c>
       <c r="J19" s="3">
-        <v>0.19</v>
+        <v>0.35</v>
       </c>
       <c r="K19" s="3">
-        <v>0.19</v>
+        <v>0.35</v>
       </c>
       <c r="L19" s="3" t="b">
         <v>0</v>
       </c>
       <c r="M19" s="3"/>
       <c r="N19" s="3" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A20" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="B20" s="13" t="s">
         <v>51</v>
       </c>
-      <c r="B20" s="13" t="s">
-        <v>53</v>
-      </c>
       <c r="C20" s="4" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="D20" s="3"/>
       <c r="E20" s="4" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F20" s="3"/>
       <c r="G20" s="2">
@@ -1439,10 +1439,13 @@
       </c>
       <c r="M20" s="3"/>
       <c r="N20" s="3" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
+  <sortState ref="A2:N20">
+    <sortCondition ref="A2:A20"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>